--- a/VALOR/Exportación por Lugar de Salida 2018 - Mensual - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2018 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2018\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D0BE23-5A63-4EA5-85CF-551715C384E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE896A0-6ED0-4A23-9811-E00015AA2560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expo LugarSalida Monto FOB 2018" sheetId="5" r:id="rId1"/>
@@ -355,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -396,13 +396,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -425,6 +521,10 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,24 +534,653 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,6 +1191,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFA60CC3-018F-4804-954D-8CA909F3C857}" name="exp_salida_valor_2018" displayName="exp_salida_valor_2018" ref="A1:M57" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15" dataCellStyle="Millares">
+  <autoFilter ref="A1:M57" xr:uid="{B078C0DA-3CEA-4F33-A1B1-89290E15C54D}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1C04362C-AF56-408D-91FB-A85CF7F07BD8}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="2" xr3:uid="{4CB72E29-AE4D-49C1-8EB2-9762449D348A}" name="Enero - 2018" dataDxfId="13" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{0523311A-8495-4697-A4C6-C7181A7CE880}" name="Febrero - 2018" dataDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{1030CD1D-BCED-4101-BCCC-91C0C2BF4AF5}" name="Marzo - 2018" dataDxfId="11" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{AA3532C2-E06E-4600-8B23-4E6D8F0E9C7F}" name="Abril - 2018" dataDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{148F6361-6247-4C75-B321-BAB7BFBFBEE0}" name="Mayo - 2018 " dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{740D2476-B39F-41EE-879D-36BADD0607F5}" name="Junio - 2018" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="8" xr3:uid="{D9009C5C-D7EC-481A-B3D0-6DD64EB3FD97}" name="Julio - 2018" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="9" xr3:uid="{E9E2EF1A-EAC8-4025-9063-A9B915834B4D}" name="Agosto - 2018" dataDxfId="6" dataCellStyle="Millares"/>
+    <tableColumn id="10" xr3:uid="{E3BDE854-3524-45D9-9D5E-87840E682081}" name="Septiembre - 2018" dataDxfId="5" dataCellStyle="Millares"/>
+    <tableColumn id="11" xr3:uid="{9BFB017F-EBA2-40D0-968C-E5D186318FD9}" name="Octubre - 2018" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="12" xr3:uid="{D51B1748-10D0-4711-BB56-CA0B21FE6256}" name="Noviembre - 2018" dataDxfId="3" dataCellStyle="Millares"/>
+    <tableColumn id="13" xr3:uid="{536F225D-A0EF-41AC-98B8-4319F6C9E471}" name="Diciembre - 2018" dataDxfId="2" dataCellStyle="Millares"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,42 +1505,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -833,7 +1584,7 @@
       <c r="N4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3366,12 +4117,12 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
@@ -3380,48 +4131,49 @@
     <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
     <col min="8" max="9" width="17.44140625" style="2" customWidth="1"/>
     <col min="10" max="11" width="18.33203125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="16.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3429,40 +4181,40 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="12">
         <v>394473782.3900001</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="13">
         <v>352888290.24000072</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="13">
         <v>387518804.85000098</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="13">
         <v>420901762.1799978</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="13">
         <v>406659981.0000003</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="13">
         <v>416968387.89999974</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="13">
         <v>379303882.94999963</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="13">
         <v>457115698.48000032</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="13">
         <v>380275689.46000051</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="13">
         <v>431156166.63000023</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="13">
         <v>402369356.84000033</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>378871768.08999985</v>
       </c>
     </row>
@@ -3470,40 +4222,40 @@
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="12">
         <v>359974.75</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="13">
         <v>648177.73</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="13">
         <v>39187.410000000003</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>82958.12</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="13">
         <v>70079.899999999994</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="13">
         <v>36358.29</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="13">
         <v>34964.46</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="13">
         <v>28160.32</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <v>25761.719999999998</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="13">
         <v>24639.27</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="13">
         <v>281605.64</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>344646.61</v>
       </c>
     </row>
@@ -3511,40 +4263,40 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>1546.31</v>
       </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
         <v>94659.65</v>
       </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3552,40 +4304,40 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="12">
         <v>31426.23</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>25097.85</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <v>54453.37</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="13">
         <v>2994.38</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="13">
         <v>5094567.05</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="13">
         <v>1439.69</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <v>111474.92</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="13">
         <v>1661.16</v>
       </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
         <v>71335.56</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="13">
         <v>295294.96999999997</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>814161.41000000015</v>
       </c>
     </row>
@@ -3593,40 +4345,40 @@
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <v>114975.78</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>166411.18</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="13">
         <v>88869.68</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="13">
         <v>72744.06</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="13">
         <v>60329.75</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="13">
         <v>88698.09</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <v>95600.17</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="13">
         <v>417016.31000000006</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="13">
         <v>38514.11</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="13">
         <v>51859.59</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="13">
         <v>971160.47</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <v>63312.53</v>
       </c>
     </row>
@@ -3634,40 +4386,40 @@
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <v>1000000</v>
       </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3675,40 +4427,40 @@
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
         <v>160430.51</v>
       </c>
     </row>
@@ -3716,40 +4468,40 @@
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="12">
         <v>600841600.34000003</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <v>510547453.89999992</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>522926566.01999992</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="13">
         <v>435005196.50000006</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <v>423340426.45999992</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>329240069.29000002</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <v>224552708.97000003</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="13">
         <v>411553775.63999987</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="13">
         <v>290602549.43999994</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="13">
         <v>283885812.42000002</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="13">
         <v>482993497.9600001</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <v>462359202.91999996</v>
       </c>
     </row>
@@ -3757,40 +4509,40 @@
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>18806494.650000002</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>19778971.009999998</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <v>11932684.529999999</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>12460064.379999997</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <v>17421509.650000006</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>9528746.7100000028</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <v>23459620.319999993</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="13">
         <v>17743875.299999997</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="13">
         <v>9007798.2899999991</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="13">
         <v>15755113.840000004</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="13">
         <v>12692582.76</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <v>10007236.229999997</v>
       </c>
     </row>
@@ -3798,40 +4550,40 @@
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="12">
         <v>32499415.910000004</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>17745206.010000002</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="13">
         <v>20257540.189999998</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <v>17313934.169999998</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>14145358.699999999</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>21428068.09</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <v>32926375.810000002</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="13">
         <v>11646618.65</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <v>12242914.949999999</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="13">
         <v>21075199.870000001</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="13">
         <v>29480031.109999996</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <v>39852413.219999999</v>
       </c>
     </row>
@@ -3839,40 +4591,40 @@
       <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>11753641.59</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>6413247.5700000003</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>2989980.7399999998</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>11138433.810000001</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>6157142.2300000004</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <v>13967027.41</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="13">
         <v>6143520.8699999992</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <v>3201952.2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="13">
         <v>8566801.1899999995</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="13">
         <v>26175.09</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="13">
         <v>10698082.060000001</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <v>5887692.8899999997</v>
       </c>
     </row>
@@ -3880,40 +4632,40 @@
       <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>207467946.88999999</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="13">
         <v>124466885.34</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="13">
         <v>115903881.39999999</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <v>185301735.23000002</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>95454369.229999989</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="13">
         <v>152893781.31999999</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <v>143428187.11999997</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="13">
         <v>130503426.69000001</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <v>132551830.82000002</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="13">
         <v>171599047.82999998</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="13">
         <v>154342059.18000001</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <v>140736609.56999999</v>
       </c>
     </row>
@@ -3921,40 +4673,40 @@
       <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>508746472.35000002</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>543386877.53999996</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="13">
         <v>331294307.93999994</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>450751573.38999999</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>519681393.88999999</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>615745251.18000007</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <v>597327869.25</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <v>433392490.51999998</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="13">
         <v>118629750.66999999</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="13">
         <v>535157450.93000001</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="13">
         <v>418798642.28000003</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>449801069.27999997</v>
       </c>
     </row>
@@ -3962,40 +4714,40 @@
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>13513722.340000002</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>11434504.18</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="13">
         <v>16447050.950000003</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <v>12271902.699999999</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>11098806.74</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>11149249.970000001</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <v>13728064.939999998</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <v>10668063.030000001</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <v>7354982.3399999999</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="13">
         <v>11146442.220000001</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="13">
         <v>9090712.3899999987</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <v>8019204.9399999995</v>
       </c>
     </row>
@@ -4003,40 +4755,40 @@
       <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>1363</v>
       </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19">
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
         <v>0</v>
       </c>
     </row>
@@ -4044,40 +4796,40 @@
       <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>4865374.97</v>
       </c>
-      <c r="C17" s="19">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
         <v>8539291.1899999995</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>3825134.02</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <v>5234443.7699999996</v>
       </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
         <v>8888606.4600000009</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <v>6492034.6900000004</v>
       </c>
     </row>
@@ -4085,40 +4837,40 @@
       <c r="A18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <v>46542325.549999997</v>
       </c>
-      <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
         <v>28198952.350000001</v>
       </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
         <v>9383497.1199999992</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <v>25870110.960000001</v>
       </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
         <v>11396468.1</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="13">
         <v>409.07</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>9341471.3900000006</v>
       </c>
     </row>
@@ -4126,40 +4878,40 @@
       <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
         <v>606690</v>
       </c>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
         <v>0</v>
       </c>
     </row>
@@ -4167,40 +4919,40 @@
       <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>16408754.169999998</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="13">
         <v>10379843.039999999</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="13">
         <v>13586520.29999999</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <v>12339883.849999988</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <v>10588495.659999993</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <v>10837684.729999999</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <v>11693457</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <v>14223615.290000003</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="13">
         <v>9397015.2699999977</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="13">
         <v>14974387.910000009</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="13">
         <v>11934130.669999998</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>11697041.830000004</v>
       </c>
     </row>
@@ -4208,40 +4960,40 @@
       <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="12">
         <v>6686020.4800000014</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="13">
         <v>3337332.3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="13">
         <v>2870973.48</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <v>6518596.4499999993</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="13">
         <v>3494857.5599999996</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="13">
         <v>3909438.8200000003</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <v>2984150.9099999997</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="13">
         <v>3989675.6200000006</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="13">
         <v>3863967.0400000005</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="13">
         <v>4993701.84</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="13">
         <v>16167882.959999999</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <v>8434152.8800000008</v>
       </c>
     </row>
@@ -4249,40 +5001,40 @@
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>11009641.529999999</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="13">
         <v>9642299.0399999935</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="13">
         <v>13533748.469999997</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="13">
         <v>11237785.009999994</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="13">
         <v>14102571.390000004</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="13">
         <v>12390034.58</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="13">
         <v>9952343.8799999952</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="13">
         <v>14087417.469999991</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="13">
         <v>8821236.160000002</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="13">
         <v>15169682.410000002</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="13">
         <v>11876583.119999999</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <v>8572648.7599999961</v>
       </c>
     </row>
@@ -4290,40 +5042,40 @@
       <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="12">
         <v>120560097.36</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>40138095.540000007</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <v>130102662.68000001</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <v>48224420.57</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="13">
         <v>50461278.529999994</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="13">
         <v>57565333.460000008</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="13">
         <v>38372026.780000001</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="13">
         <v>35749196.010000005</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="13">
         <v>18677216.420000002</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="13">
         <v>16588753.300000001</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="13">
         <v>39969131.929999992</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="18">
         <v>16623848.32</v>
       </c>
     </row>
@@ -4331,40 +5083,40 @@
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>348006664.27999973</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="13">
         <v>250091376.84000006</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="13">
         <v>311156325.5</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <v>301060769.87000042</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="13">
         <v>273359547.39999998</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="13">
         <v>318630021.75999999</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="13">
         <v>363378760.20999974</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="13">
         <v>407446314.95999998</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="13">
         <v>311394669.88999993</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="13">
         <v>411344063.90999949</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="13">
         <v>361622609.62000006</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <v>370394786.5200001</v>
       </c>
     </row>
@@ -4372,40 +5124,40 @@
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="12">
         <v>2943607.89</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="13">
         <v>6802775.9800000004</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="13">
         <v>8246578.7700000005</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="13">
         <v>6150658.1100000003</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="13">
         <v>3422290.1500000004</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="13">
         <v>3129939.82</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="13">
         <v>7277860.5699999994</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="13">
         <v>5467835.3399999989</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="13">
         <v>3559031.96</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="13">
         <v>6173593.2300000004</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="13">
         <v>3108552.54</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="18">
         <v>7218758.6900000004</v>
       </c>
     </row>
@@ -4413,40 +5165,40 @@
       <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>123780144.14999989</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="13">
         <v>97562321.760000035</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="13">
         <v>120934352.49000007</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="13">
         <v>131347647.03000018</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="13">
         <v>135231910.01000014</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="13">
         <v>122336387.86999999</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="13">
         <v>109559685.3999999</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="13">
         <v>427908142.69000053</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="13">
         <v>100179186.04999997</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="13">
         <v>120709527.53000008</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="13">
         <v>107115932.06</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <v>106751587.40000001</v>
       </c>
     </row>
@@ -4454,40 +5206,40 @@
       <c r="A27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>9573360.5800000001</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="13">
         <v>7088091.7000000002</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="13">
         <v>8955068.9600000009</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="13">
         <v>5574264.2800000003</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="13">
         <v>8809661.959999999</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="13">
         <v>8582452.8300000001</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="13">
         <v>8013700.0199999996</v>
       </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
         <v>9044999.3800000008</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="13">
         <v>21478371.440000001</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="13">
         <v>4406288.1100000003</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <v>9671420.6100000013</v>
       </c>
     </row>
@@ -4495,40 +5247,40 @@
       <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>60510941.079999998</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <v>30380157.650000002</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <v>33962955.890000001</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <v>26747402.970000003</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="13">
         <v>41608886.780000001</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="13">
         <v>59229764.370000005</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <v>55759178.069999993</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <v>34313967.780000001</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="13">
         <v>33832155.099999994</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="13">
         <v>78299717.810000002</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="13">
         <v>35868061.140000001</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>43831.03</v>
       </c>
     </row>
@@ -4536,40 +5288,40 @@
       <c r="A29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="12">
         <v>9185735.9000000022</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="13">
         <v>15885162.83</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="13">
         <v>11141325.940000001</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="13">
         <v>19289324.030000001</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="13">
         <v>10620806.299999999</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="13">
         <v>13252134.34</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="13">
         <v>11700461.930000002</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="13">
         <v>12010795.929999998</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="13">
         <v>10363587.430000002</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="13">
         <v>15617099.33</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="13">
         <v>11657516.600000001</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>15169375.309999999</v>
       </c>
     </row>
@@ -4577,40 +5329,40 @@
       <c r="A30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="12">
         <v>67833970.210000008</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="13">
         <v>78717926.949999988</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="13">
         <v>66323966.139999993</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="13">
         <v>52239306.780000016</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="13">
         <v>81872270.269999996</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="13">
         <v>95327134.370000005</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="13">
         <v>116752648.28000002</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="13">
         <v>64512965.210000001</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="13">
         <v>51150105.829999998</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="13">
         <v>86408649.979999974</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="13">
         <v>59614361.259999998</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>94071745.819999978</v>
       </c>
     </row>
@@ -4618,40 +5370,40 @@
       <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="12">
         <v>370268904.17000008</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="13">
         <v>404233031.82000005</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="13">
         <v>343018385.99000019</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="13">
         <v>256265306.80999979</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="13">
         <v>308287469.34999979</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="13">
         <v>273034275.4200002</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="13">
         <v>243299568.19000009</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <v>332021984.61000001</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="13">
         <v>278822074.60000008</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="13">
         <v>352171240.90999991</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="13">
         <v>365835453.31</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="18">
         <v>330401519.6699999</v>
       </c>
     </row>
@@ -4659,40 +5411,40 @@
       <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>179322467.88</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="13">
         <v>131169805.06999999</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="13">
         <v>202250998.31</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="13">
         <v>251492248.19</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="13">
         <v>110235011.42999999</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="13">
         <v>115023096.83000001</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="13">
         <v>175786885</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="13">
         <v>246917781.38</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="13">
         <v>75014436.730000004</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="13">
         <v>280848517.95999998</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="13">
         <v>186316493.06999996</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="18">
         <v>145659727.43000001</v>
       </c>
     </row>
@@ -4700,40 +5452,40 @@
       <c r="A33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>29255.56</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="13">
         <v>35644.509999999995</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="13">
         <v>24640.14</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="13">
         <v>8680.16</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>5567.1</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="13">
         <v>6098.05</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="13">
         <v>7332.1</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="13">
         <v>513.04999999999995</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="13">
         <v>524.52</v>
       </c>
-      <c r="K33" s="19">
-        <v>0</v>
-      </c>
-      <c r="L33" s="19">
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
         <v>23587.47</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>0</v>
       </c>
     </row>
@@ -4741,40 +5493,40 @@
       <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>60793.53</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="13">
         <v>73056.42</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="13">
         <v>115433.84999999999</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="13">
         <v>61050.38</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="13">
         <v>114664.79999999999</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="13">
         <v>95336.46</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="13">
         <v>43729.409999999996</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="13">
         <v>62811.02</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="13">
         <v>29026</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="13">
         <v>60650.080000000002</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="13">
         <v>46426.95</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <v>32278.87</v>
       </c>
     </row>
@@ -4782,40 +5534,40 @@
       <c r="A35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>68728429.450000003</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="13">
         <v>31195657.129999999</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>40846902.109999999</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="13">
         <v>72513145.989999995</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="13">
         <v>148010709.69</v>
       </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
         <v>113210066.28999999</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="13">
         <v>64233769.619999997</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="13">
         <v>13527349.380000001</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="13">
         <v>138112252.66999999</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="13">
         <v>96897450.189999998</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>130182607.31999999</v>
       </c>
     </row>
@@ -4823,40 +5575,40 @@
       <c r="A36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>9136781.1099999994</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="13">
         <v>7479460.4800000004</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="13">
         <v>15112370.340000002</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="13">
         <v>16290708.729999999</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="13">
         <v>17916304.970000003</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="13">
         <v>12493411.109999999</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="13">
         <v>5695690.5700000003</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="13">
         <v>9020674.4300000016</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="13">
         <v>3928234.7700000005</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="13">
         <v>8334752.120000001</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="13">
         <v>6729305.3599999994</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="18">
         <v>10635935.190000001</v>
       </c>
     </row>
@@ -4864,40 +5616,40 @@
       <c r="A37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="18">
-        <v>0</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0</v>
-      </c>
-      <c r="D37" s="19">
+      <c r="B37" s="12">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
         <v>4232.59</v>
       </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
         <v>12824.63</v>
       </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="19">
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>14000</v>
       </c>
-      <c r="J37" s="19">
-        <v>0</v>
-      </c>
-      <c r="K37" s="19">
-        <v>0</v>
-      </c>
-      <c r="L37" s="19">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19">
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
         <v>3166.84</v>
       </c>
     </row>
@@ -4905,40 +5657,40 @@
       <c r="A38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>5392192.9199999999</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="13">
         <v>3919884.5300000012</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="13">
         <v>4486256.0699999994</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="13">
         <v>6101286.7999999998</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="13">
         <v>4850505.2499999981</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="13">
         <v>4078518.7700000005</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="13">
         <v>3315957.34</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="13">
         <v>5949608.1399999987</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="13">
         <v>3449535.83</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="13">
         <v>5033633.9500000011</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="13">
         <v>3850156.0899999989</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="18">
         <v>4830172.1499999994</v>
       </c>
     </row>
@@ -4946,40 +5698,40 @@
       <c r="A39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>1747503.46</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="13">
         <v>1471716.2800000003</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="13">
         <v>1535226.28</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="13">
         <v>1545655.2899999998</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="13">
         <v>2465807.7699999991</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="13">
         <v>1644124.6700000002</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="13">
         <v>2657675.1899999995</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="13">
         <v>3500444.03</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="13">
         <v>2919311.7399999998</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="13">
         <v>2728981.55</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="13">
         <v>4214929.6999999993</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <v>1701672.91</v>
       </c>
     </row>
@@ -4987,40 +5739,40 @@
       <c r="A40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>307855769.93000001</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="13">
         <v>145036062.08999997</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="13">
         <v>172202882.46999997</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="13">
         <v>228735945.90000001</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="13">
         <v>208736858.55000001</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="13">
         <v>152202975.66999999</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="13">
         <v>243923644.17000002</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="13">
         <v>242898240.57000002</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="13">
         <v>106916408.93000001</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="13">
         <v>257499190.12</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="13">
         <v>301718233.66000003</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="18">
         <v>262876428.18000001</v>
       </c>
     </row>
@@ -5028,40 +5780,40 @@
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="12">
         <v>3718584.4000000004</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="13">
         <v>16248251.859999999</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="13">
         <v>7247448.1299999999</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="13">
         <v>13097808.74</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="13">
         <v>9337758.540000001</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="13">
         <v>12026576.330000002</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="13">
         <v>8545780.0199999996</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="13">
         <v>12600433.280000001</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="13">
         <v>14331260.869999999</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="13">
         <v>15335789.59</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="13">
         <v>15601722.199999999</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="18">
         <v>17533165.190000001</v>
       </c>
     </row>
@@ -5069,40 +5821,40 @@
       <c r="A42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="19">
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
         <v>1558000</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="13">
         <v>2202000</v>
       </c>
-      <c r="F42" s="19">
-        <v>0</v>
-      </c>
-      <c r="G42" s="19">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19">
-        <v>0</v>
-      </c>
-      <c r="I42" s="19">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
         <v>2577665.85</v>
       </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5110,40 +5862,40 @@
       <c r="A43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="12">
         <v>51298293.510000028</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="13">
         <v>40657354.93</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="13">
         <v>40549735.500000022</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="13">
         <v>40438246.860000022</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="13">
         <v>42022290.769999996</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="13">
         <v>28298950.549999993</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="13">
         <v>50832390.889999986</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="13">
         <v>48710279.719999999</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="13">
         <v>30034675.140000004</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="13">
         <v>48753286.179999977</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="13">
         <v>44370465.660000004</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="18">
         <v>43032189.010000005</v>
       </c>
     </row>
@@ -5151,40 +5903,40 @@
       <c r="A44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="12">
         <v>1098215019.8999999</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="13">
         <v>901430312.38000011</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="13">
         <v>1057833638.3899997</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="13">
         <v>1004825029.7500001</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="13">
         <v>1082029322.9400001</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="13">
         <v>1319866702.1500006</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="13">
         <v>924688625.07000005</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="13">
         <v>1056195926.8199997</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="13">
         <v>740563236.51999974</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="13">
         <v>986884276.98000002</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="13">
         <v>814168596.06999993</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="18">
         <v>757586623.69000065</v>
       </c>
     </row>
@@ -5192,40 +5944,40 @@
       <c r="A45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="12">
         <v>571087.62</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="13">
         <v>291635.78999999998</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="13">
         <v>252312.59000000003</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="13">
         <v>296827.94999999995</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="13">
         <v>262980.25</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="13">
         <v>169263.87000000002</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="13">
         <v>271945.00999999995</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="13">
         <v>823619.2</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="13">
         <v>283810.97000000003</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="13">
         <v>411294.17</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="13">
         <v>258949.84</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="18">
         <v>566900.65</v>
       </c>
     </row>
@@ -5233,40 +5985,40 @@
       <c r="A46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="12">
         <v>1269047.45</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="13">
         <v>1394415.32</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="13">
         <v>739274.98</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="13">
         <v>11761.61</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
-        <v>0</v>
-      </c>
-      <c r="K46" s="19">
-        <v>0</v>
-      </c>
-      <c r="L46" s="19">
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
         <v>420904.07</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="18">
         <v>1606577.88</v>
       </c>
     </row>
@@ -5274,40 +6026,40 @@
       <c r="A47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="12">
         <v>5054531.5200000005</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="13">
         <v>10497904.950000001</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="13">
         <v>2616022.04</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="13">
         <v>9307604.1099999994</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="13">
         <v>5583341.29</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="13">
         <v>1354756.66</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="13">
         <v>1912345.2999999998</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="13">
         <v>908041.18</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="13">
         <v>1121164.53</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="13">
         <v>2412845.21</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="13">
         <v>2856109.13</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="18">
         <v>6076911.1799999997</v>
       </c>
     </row>
@@ -5315,40 +6067,40 @@
       <c r="A48" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="12">
         <v>346329.2</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="13">
         <v>6317413.7800000003</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="13">
         <v>7393684.8399999999</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="13">
         <v>476331.81000000006</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="13">
         <v>225132.86</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="13">
         <v>11998458.609999999</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="13">
         <v>5451586.8000000007</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="13">
         <v>13558444.85</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="13">
         <v>941029.13</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="13">
         <v>8986353.7400000002</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="13">
         <v>15840963.970000001</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="18">
         <v>674237.74</v>
       </c>
     </row>
@@ -5356,40 +6108,40 @@
       <c r="A49" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="12">
         <v>751144780.68000019</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="13">
         <v>484087613.76000029</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="13">
         <v>657435431.2400018</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="13">
         <v>798187536.98999989</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="13">
         <v>772033265.89000034</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="13">
         <v>811210601.22000122</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="13">
         <v>954938069.62000024</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="13">
         <v>1024025571.9699997</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="13">
         <v>872125733.58000016</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="13">
         <v>1034971850.2799983</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="13">
         <v>785058505.50000119</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="18">
         <v>1185873612.389998</v>
       </c>
     </row>
@@ -5397,40 +6149,40 @@
       <c r="A50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>12056.99</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="13">
         <v>42042</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="13">
         <v>131806.19</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="13">
         <v>107508</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="13">
         <v>112435.68999999999</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="13">
         <v>115285.35</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="13">
         <v>66300</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="13">
         <v>36018.980000000003</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="13">
         <v>173400</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="13">
         <v>56221</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="13">
         <v>128096.5</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="18">
         <v>69888.7</v>
       </c>
     </row>
@@ -5438,40 +6190,40 @@
       <c r="A51" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="12">
         <v>251895.63</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="13">
         <v>449954.6</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="13">
         <v>15694.730000000001</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="13">
         <v>106364</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="13">
         <v>372274</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="13">
         <v>14272.2</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="13">
         <v>36435.89</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="13">
         <v>251963.93</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="13">
         <v>164428.68</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="13">
         <v>5171.8600000000006</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="13">
         <v>128266.81999999999</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="18">
         <v>3346.5199999999995</v>
       </c>
     </row>
@@ -5479,40 +6231,40 @@
       <c r="A52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="12">
         <v>422756073.67999977</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="13">
         <v>330724679.29999983</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="13">
         <v>334037405.7899999</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="13">
         <v>307059384.54999989</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="13">
         <v>300228684.64999974</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="13">
         <v>239365537.79999977</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="13">
         <v>277357377.67000002</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="13">
         <v>305080555.19</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="13">
         <v>240226591.16999996</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="13">
         <v>258787698.85000002</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="13">
         <v>260926121.98000011</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="18">
         <v>252447850.77999997</v>
       </c>
     </row>
@@ -5520,40 +6272,40 @@
       <c r="A53" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="12">
         <v>3981192.47</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="13">
         <v>2278514.5699999998</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="13">
         <v>2178626.13</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="13">
         <v>9268641.5700000003</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="13">
         <v>42227537.579999998</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="13">
         <v>11311308.600000001</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="13">
         <v>16525857.34</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="13">
         <v>3342785.61</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="13">
         <v>34629547.43</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="13">
         <v>6280770.5999999996</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="13">
         <v>3996694.9200000004</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="18">
         <v>1826107.31</v>
       </c>
     </row>
@@ -5561,40 +6313,40 @@
       <c r="A54" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="12">
         <v>76621568.579999998</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="13">
         <v>70288410.149999991</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="13">
         <v>49755397.770000011</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="13">
         <v>55881241.789999999</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="13">
         <v>94910456.810000002</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="13">
         <v>66620712.719999999</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="13">
         <v>63349113.449999996</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="13">
         <v>67615903.5</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="13">
         <v>63716688.200000003</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="13">
         <v>45681099.939999998</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="13">
         <v>37943002.009999998</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="18">
         <v>27019995.609999999</v>
       </c>
     </row>
@@ -5602,40 +6354,40 @@
       <c r="A55" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="12">
         <v>1406916438.0899999</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="13">
         <v>953017629.73999953</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="13">
         <v>967029933.23999989</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="13">
         <v>1116627430.5999992</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="13">
         <v>885810114.03999937</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="13">
         <v>785844959.2000016</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="13">
         <v>733911018.07999802</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="13">
         <v>705903919.44000065</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="13">
         <v>472931553.71999997</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="13">
         <v>729071128.17999995</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="13">
         <v>576021408.80999899</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="18">
         <v>171514932.50999999</v>
       </c>
     </row>
@@ -5643,85 +6395,88 @@
       <c r="A56" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="12">
         <v>114217217.51000001</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="13">
         <v>63517157.699999996</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="13">
         <v>126241305.77000001</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="13">
         <v>113025980.72999999</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="13">
         <v>308220293.6699999</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="13">
         <v>230230868.21000004</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="13">
         <v>799311058.90999997</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="13">
         <v>180854262.03</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="13">
         <v>189840445.14999998</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K56" s="13">
         <v>177075061.95999998</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L56" s="13">
         <v>222919929.05999997</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="18">
         <v>222809799.98999998</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="23">
         <v>70599471.769999966</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="24">
         <v>57506669.059999995</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="24">
         <v>57774814.86999999</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="24">
         <v>50552712.859999977</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="24">
         <v>61043058.999999993</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="24">
         <v>70432055.379999995</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="24">
         <v>56676865.350000031</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="24">
         <v>73119245.820000038</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="24">
         <v>57858345.260000005</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="24">
         <v>58371226.540000007</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="24">
         <v>63987463.460000008</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="25">
         <v>105267765.54000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>